--- a/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,23%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 1,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,15; 146,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,81; 134,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 527,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,95; 125,19</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,38%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 2,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,32; 42,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,19; 73,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,49; 55,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,14; 78,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 1,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,96; 72,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,47; 96,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,0; 362,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 192,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 1,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 39,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 43,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 68,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 71,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>19,08%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,76</t>
+          <t>-1,51; 1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 125,19</t>
+          <t>-41,67; 132,64</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>13,18%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,24</t>
+          <t>-1,28; 2,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 78,87</t>
+          <t>-29,65; 84,84</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>67,22%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,11</t>
+          <t>-0,24; 4,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 192,96</t>
+          <t>-8,01; 189,49</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,89</t>
+          <t>-0,56; 1,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 71,43</t>
+          <t>-14,81; 69,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,36</t>
+          <t>-0,73; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,25</t>
+          <t>-1,2; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,18</t>
+          <t>-0,15; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,83</t>
+          <t>-1,5; 1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 146,96</t>
+          <t>-24,18; 136,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 134,34</t>
+          <t>-46,72; 133,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 527,08</t>
+          <t>-14,24; 619,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 132,64</t>
+          <t>-40,47; 140,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,37</t>
+          <t>-1,56; 1,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,21</t>
+          <t>-0,61; 2,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,65</t>
+          <t>-0,84; 1,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,06</t>
+          <t>-1,32; 2,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 42,08</t>
+          <t>-32,71; 43,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 73,56</t>
+          <t>-14,73; 73,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 55,81</t>
+          <t>-20,96; 57,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 84,84</t>
+          <t>-31,4; 83,37</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,2</t>
+          <t>-3,12; 1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,33</t>
+          <t>-3,04; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,58</t>
+          <t>-0,37; 3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,24</t>
+          <t>-0,01; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 72,63</t>
+          <t>-74,74; 91,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 96,75</t>
+          <t>-53,01; 97,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 362,21</t>
+          <t>-29,58; 359,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 189,49</t>
+          <t>-5,65; 202,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,15</t>
+          <t>-1,06; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,24</t>
+          <t>-0,79; 1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,64</t>
+          <t>-0,27; 1,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,78</t>
+          <t>-0,46; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 39,46</t>
+          <t>-26,78; 33,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 43,21</t>
+          <t>-20,58; 41,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 68,8</t>
+          <t>-8,28; 68,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 69,91</t>
+          <t>-11,95; 73,06</t>
         </is>
       </c>
     </row>
